--- a/data/trans_orig/P1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{796A7572-CD27-40B1-9912-A5B660CEC830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9BA1EE-E9FE-4C46-81FC-C8B0F43DDD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87ABDF32-A1F8-4255-8599-201597F6C5CB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A686A5-8C77-40CC-AA3E-7CB1F9970FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,340 +140,343 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>97,22%</t>
   </si>
   <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>9,74%</t>
   </si>
   <si>
     <t>11,18%</t>
@@ -482,19 +485,16 @@
     <t>93,27%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>92,31%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>89,6%</t>
@@ -503,7 +503,7 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>90,42%</t>
+    <t>90,26%</t>
   </si>
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
@@ -512,145 +512,145 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>8,75%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>96,17%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>91,25%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>94,66%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>5,37%</t>
@@ -659,13 +659,13 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>6,19%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>9,61%</t>
   </si>
   <si>
     <t>11,79%</t>
@@ -674,13 +674,16 @@
     <t>8,1%</t>
   </si>
   <si>
-    <t>8,78%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>93,81%</t>
+    <t>93,73%</t>
   </si>
   <si>
     <t>95,31%</t>
@@ -692,13 +695,16 @@
     <t>88,21%</t>
   </si>
   <si>
-    <t>90,36%</t>
+    <t>90,39%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>91,22%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
@@ -707,193 +713,199 @@
     <t>11,74%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>5,43%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>94,54%</t>
   </si>
   <si>
-    <t>93,15%</t>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>5,16%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>11,84%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
+    <t>7,77%</t>
+  </si>
+  <si>
     <t>9,19%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
+    <t>94,84%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>88,16%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
     <t>90,81%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B8257E-DD54-4644-A820-A13789FA9379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C0B47-C77D-48E6-A542-357371822998}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1739,13 +1751,13 @@
         <v>20115</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -1754,13 +1766,13 @@
         <v>22427</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -1769,10 +1781,10 @@
         <v>42542</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1790,13 +1802,13 @@
         <v>531293</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>430</v>
@@ -1805,13 +1817,13 @@
         <v>453985</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>938</v>
@@ -1820,13 +1832,13 @@
         <v>985278</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,7 +1984,7 @@
         <v>6066</v>
       </c>
       <c r="N14" s="7">
-        <v>6198397</v>
+        <v>6198398</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2023,7 +2035,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC83D9ED-6747-46BF-89DC-FF349A2036D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E7FE48-EDA0-4A24-AFB4-A77E69D2D439}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2526,7 +2538,7 @@
         <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2553,13 @@
         <v>466242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>392</v>
@@ -2556,13 +2568,13 @@
         <v>436635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>819</v>
@@ -2571,13 +2583,13 @@
         <v>902876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,28 +2657,28 @@
         <v>229859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
       </c>
       <c r="I13" s="7">
-        <v>495102</v>
+        <v>495101</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>669</v>
@@ -2675,13 +2687,13 @@
         <v>724960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2708,13 @@
         <v>3187932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>2832</v>
@@ -2759,7 +2771,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553176</v>
+        <v>3553175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2807,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008C23A-9C79-4F16-BEEE-41993F8C4B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AD2258-C966-45CF-AD0A-060E2CB0A461}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,10 +3116,10 @@
         <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -3116,13 +3128,13 @@
         <v>245139</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,7 +3152,7 @@
         <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>182</v>
@@ -3158,7 +3170,7 @@
         <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7">
         <v>3634</v>
@@ -3167,10 +3179,10 @@
         <v>3819546</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>187</v>
@@ -3271,7 +3283,7 @@
         <v>40638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>194</v>
@@ -3322,7 +3334,7 @@
         <v>1055388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>202</v>
@@ -3429,10 +3441,10 @@
         <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3459,13 @@
         <v>3196210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>2987</v>
@@ -3462,13 +3474,13 @@
         <v>3153987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6029</v>
@@ -3477,13 +3489,13 @@
         <v>6350197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369E342-CE11-4849-8961-FBBCFAAE7997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF5A69-2C42-48D9-A48D-1D609576A366}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3694,13 @@
         <v>63527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>303</v>
@@ -3697,13 +3709,13 @@
         <v>191280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -3712,13 +3724,13 @@
         <v>254807</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3745,13 @@
         <v>477419</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1121</v>
@@ -3748,13 +3760,13 @@
         <v>643008</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1730</v>
@@ -3763,13 +3775,13 @@
         <v>1120426</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3849,13 @@
         <v>109411</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
@@ -3852,13 +3864,13 @@
         <v>167377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>341</v>
@@ -3870,10 +3882,10 @@
         <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3900,13 @@
         <v>2052013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>2687</v>
@@ -3903,13 +3915,13 @@
         <v>2081799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>4570</v>
@@ -3921,10 +3933,10 @@
         <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4004,13 @@
         <v>25642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4007,13 +4019,13 @@
         <v>50032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4022,13 +4034,13 @@
         <v>75674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4055,13 @@
         <v>647397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>936</v>
@@ -4058,13 +4070,13 @@
         <v>663854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
@@ -4073,13 +4085,13 @@
         <v>1311252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4159,13 @@
         <v>198580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>604</v>
@@ -4162,13 +4174,13 @@
         <v>408689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>819</v>
@@ -4177,13 +4189,13 @@
         <v>607269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4210,13 @@
         <v>3176828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>4744</v>
@@ -4213,13 +4225,13 @@
         <v>3388661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>7891</v>
@@ -4228,13 +4240,13 @@
         <v>6565489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9BA1EE-E9FE-4C46-81FC-C8B0F43DDD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA17212-1515-438C-991C-C5F929C11FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A686A5-8C77-40CC-AA3E-7CB1F9970FE2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6614A43-FA0D-4327-84A1-90F440BA3137}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,98%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,124 +140,130 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>6,87%</t>
@@ -266,31 +272,31 @@
     <t>6,28%</t>
   </si>
   <si>
-    <t>7,53%</t>
+    <t>7,49%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>92,47%</t>
+    <t>92,51%</t>
   </si>
   <si>
     <t>93,72%</t>
@@ -305,376 +311,382 @@
     <t>12,92%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>3,83%</t>
+    <t>3,69%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>96,17%</t>
+    <t>96,31%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>7,45%</t>
+    <t>7,44%</t>
   </si>
   <si>
     <t>8,81%</t>
@@ -683,19 +695,19 @@
     <t>94,63%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>91,9%</t>
@@ -704,7 +716,7 @@
     <t>91,19%</t>
   </si>
   <si>
-    <t>92,55%</t>
+    <t>92,56%</t>
   </si>
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
@@ -773,9 +785,6 @@
     <t>6,2%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
     <t>6,23%</t>
   </si>
   <si>
@@ -797,9 +806,6 @@
     <t>95,87%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
     <t>91,31%</t>
   </si>
   <si>
@@ -866,9 +872,6 @@
     <t>95,57%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
     <t>5,16%</t>
   </si>
   <si>
@@ -885,9 +888,6 @@
   </si>
   <si>
     <t>9,19%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
   </si>
   <si>
     <t>94,84%</t>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C0B47-C77D-48E6-A542-357371822998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817CFFF-5136-4D6C-B8DC-DB294C0F842A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1644,7 @@
         <v>1603</v>
       </c>
       <c r="D8" s="7">
-        <v>1646348</v>
+        <v>1646349</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1695,7 +1695,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1751,13 +1751,13 @@
         <v>20115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -1766,13 +1766,13 @@
         <v>22427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -1781,13 +1781,13 @@
         <v>42542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1802,13 @@
         <v>531293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>430</v>
@@ -1817,13 +1817,13 @@
         <v>453985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>938</v>
@@ -1832,13 +1832,13 @@
         <v>985278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>170534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -1921,13 +1921,13 @@
         <v>286810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>445</v>
@@ -1936,13 +1936,13 @@
         <v>457343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1954,16 @@
         <v>3046</v>
       </c>
       <c r="D14" s="7">
-        <v>3106010</v>
+        <v>3106009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3020</v>
@@ -1972,13 +1972,13 @@
         <v>3092388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6066</v>
@@ -1987,13 +1987,13 @@
         <v>6198398</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E7FE48-EDA0-4A24-AFB4-A77E69D2D439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A7AFC3-710F-4285-B836-08AC1CDAC658}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2192,13 @@
         <v>125898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>287</v>
@@ -2207,13 +2207,13 @@
         <v>306409</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>401</v>
@@ -2222,13 +2222,13 @@
         <v>432306</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>848745</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>959</v>
@@ -2258,13 +2258,13 @@
         <v>1030333</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1753</v>
@@ -2273,13 +2273,13 @@
         <v>1879078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2347,13 @@
         <v>89022</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -2362,13 +2362,13 @@
         <v>166696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -2377,13 +2377,13 @@
         <v>255718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,16 +2395,16 @@
         <v>1771</v>
       </c>
       <c r="D8" s="7">
-        <v>1872944</v>
+        <v>1872945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1481</v>
@@ -2413,28 +2413,28 @@
         <v>1591107</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>3252</v>
       </c>
       <c r="N8" s="7">
-        <v>3464051</v>
+        <v>3464052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2446,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961966</v>
+        <v>1961967</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2476,7 +2476,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3719769</v>
+        <v>3719770</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2502,13 +2502,13 @@
         <v>14939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2517,13 +2517,13 @@
         <v>21996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2532,13 +2532,13 @@
         <v>36936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2553,13 @@
         <v>466242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>392</v>
@@ -2568,13 +2568,13 @@
         <v>436635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>819</v>
@@ -2583,13 +2583,13 @@
         <v>902876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,28 +2657,28 @@
         <v>229859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
       </c>
       <c r="I13" s="7">
-        <v>495101</v>
+        <v>495102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>669</v>
@@ -2687,13 +2687,13 @@
         <v>724960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2708,13 @@
         <v>3187932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2832</v>
@@ -2723,13 +2723,13 @@
         <v>3058074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5824</v>
@@ -2738,13 +2738,13 @@
         <v>6246006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2771,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553175</v>
+        <v>3553176</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AD2258-C966-45CF-AD0A-060E2CB0A461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A636E963-DCC6-4E83-9480-A0365B072BBD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2943,13 @@
         <v>69263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>177</v>
@@ -2958,13 +2958,13 @@
         <v>204481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>248</v>
@@ -2973,13 +2973,13 @@
         <v>273744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>685084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>715</v>
@@ -3009,13 +3009,13 @@
         <v>790179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1406</v>
@@ -3024,13 +3024,13 @@
         <v>1475263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3098,13 @@
         <v>96103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3113,13 +3113,13 @@
         <v>149036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -3128,13 +3128,13 @@
         <v>245139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3149,13 @@
         <v>1980282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1770</v>
@@ -3164,13 +3164,13 @@
         <v>1839264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>3634</v>
@@ -3179,13 +3179,13 @@
         <v>3819546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3253,13 @@
         <v>16042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3268,13 +3268,13 @@
         <v>24595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3283,13 +3283,13 @@
         <v>40638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3304,13 @@
         <v>530844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3319,13 +3319,13 @@
         <v>524545</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
@@ -3334,13 +3334,13 @@
         <v>1055388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3408,13 @@
         <v>181408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3423,13 +3423,13 @@
         <v>378113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>512</v>
@@ -3438,13 +3438,13 @@
         <v>559521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3459,13 @@
         <v>3196210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2987</v>
@@ -3474,13 +3474,13 @@
         <v>3153987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>6029</v>
@@ -3489,13 +3489,13 @@
         <v>6350197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DF5A69-2C42-48D9-A48D-1D609576A366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB06CED-161B-4D88-AA26-19ECFAA58E4A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3694,13 @@
         <v>63527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>303</v>
@@ -3709,13 +3709,13 @@
         <v>191280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -3724,13 +3724,13 @@
         <v>254807</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3745,13 @@
         <v>477419</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1121</v>
@@ -3760,13 +3760,13 @@
         <v>643008</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1730</v>
@@ -3775,13 +3775,13 @@
         <v>1120426</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3849,13 @@
         <v>109411</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
@@ -3864,13 +3864,13 @@
         <v>167377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>341</v>
@@ -3879,13 +3879,13 @@
         <v>276788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3900,13 @@
         <v>2052013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>2687</v>
@@ -3915,13 +3915,13 @@
         <v>2081799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>4570</v>
@@ -3930,13 +3930,13 @@
         <v>4133811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4004,13 @@
         <v>25642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4019,13 +4019,13 @@
         <v>50032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4034,13 +4034,13 @@
         <v>75674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4055,13 @@
         <v>647397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>936</v>
@@ -4070,13 +4070,13 @@
         <v>663854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
@@ -4085,13 +4085,13 @@
         <v>1311252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4159,13 @@
         <v>198580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>604</v>
@@ -4174,13 +4174,13 @@
         <v>408689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>819</v>
@@ -4189,13 +4189,13 @@
         <v>607269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,10 +4210,10 @@
         <v>3176828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>283</v>
@@ -4231,7 +4231,7 @@
         <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>7891</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA17212-1515-438C-991C-C5F929C11FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA8DB5F-4A22-4080-AAAF-26068CD41026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6614A43-FA0D-4327-84A1-90F440BA3137}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85E105A1-C306-4E71-A28B-330D7E65852E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,25 +71,25 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>11,61%</t>
@@ -98,7 +98,7 @@
     <t>10,34%</t>
   </si>
   <si>
-    <t>12,97%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>89,98%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>87,03%</t>
+    <t>87,04%</t>
   </si>
   <si>
     <t>89,66%</t>
@@ -140,772 +140,760 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>88,16%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
     <t>90,81%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817CFFF-5136-4D6C-B8DC-DB294C0F842A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7F9630-1FE3-4AA2-95C6-1C6D5D31050F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1632,7 @@
         <v>1603</v>
       </c>
       <c r="D8" s="7">
-        <v>1646349</v>
+        <v>1646348</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1695,7 +1683,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1784,10 +1772,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1790,13 @@
         <v>531293</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>430</v>
@@ -1817,13 +1805,13 @@
         <v>453985</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>938</v>
@@ -1832,13 +1820,13 @@
         <v>985278</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1894,13 @@
         <v>170534</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -1921,13 +1909,13 @@
         <v>286810</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>445</v>
@@ -1936,13 +1924,13 @@
         <v>457343</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1942,16 @@
         <v>3046</v>
       </c>
       <c r="D14" s="7">
-        <v>3106009</v>
+        <v>3106010</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3020</v>
@@ -1972,28 +1960,28 @@
         <v>3092388</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6066</v>
       </c>
       <c r="N14" s="7">
-        <v>6198398</v>
+        <v>6198397</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +1993,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2023,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2037,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A7AFC3-710F-4285-B836-08AC1CDAC658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D999CD7-B368-490C-BC68-F43CC9EBC7CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2180,13 @@
         <v>125898</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>287</v>
@@ -2207,13 +2195,13 @@
         <v>306409</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>401</v>
@@ -2222,13 +2210,13 @@
         <v>432306</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2231,13 @@
         <v>848745</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>959</v>
@@ -2258,13 +2246,13 @@
         <v>1030333</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1753</v>
@@ -2273,13 +2261,13 @@
         <v>1879078</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2335,13 @@
         <v>89022</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -2362,13 +2350,13 @@
         <v>166696</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>237</v>
@@ -2377,13 +2365,13 @@
         <v>255718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,16 +2383,16 @@
         <v>1771</v>
       </c>
       <c r="D8" s="7">
-        <v>1872945</v>
+        <v>1872944</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1481</v>
@@ -2413,28 +2401,28 @@
         <v>1591107</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>3252</v>
       </c>
       <c r="N8" s="7">
-        <v>3464052</v>
+        <v>3464051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2434,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961967</v>
+        <v>1961966</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2476,7 +2464,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3719770</v>
+        <v>3719769</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2502,13 +2490,13 @@
         <v>14939</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2517,13 +2505,13 @@
         <v>21996</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -2532,13 +2520,13 @@
         <v>36936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2541,13 @@
         <v>466242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>392</v>
@@ -2568,13 +2556,13 @@
         <v>436635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>819</v>
@@ -2583,13 +2571,13 @@
         <v>902876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2645,13 @@
         <v>229859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>461</v>
@@ -2672,13 +2660,13 @@
         <v>495102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>669</v>
@@ -2687,13 +2675,13 @@
         <v>724960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2696,13 @@
         <v>3187932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>2832</v>
@@ -2723,13 +2711,13 @@
         <v>3058074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>5824</v>
@@ -2738,13 +2726,13 @@
         <v>6246006</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A636E963-DCC6-4E83-9480-A0365B072BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D2F87-DABE-4A73-B25C-10E19A965403}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2931,13 @@
         <v>69263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>177</v>
@@ -2958,13 +2946,13 @@
         <v>204481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>248</v>
@@ -2973,13 +2961,13 @@
         <v>273744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2982,13 @@
         <v>685084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>715</v>
@@ -3009,13 +2997,13 @@
         <v>790179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1406</v>
@@ -3024,13 +3012,13 @@
         <v>1475263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3086,13 @@
         <v>96103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -3113,13 +3101,13 @@
         <v>149036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -3128,13 +3116,13 @@
         <v>245139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3137,13 @@
         <v>1980282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1770</v>
@@ -3164,13 +3152,13 @@
         <v>1839264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>3634</v>
@@ -3179,13 +3167,13 @@
         <v>3819546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3241,13 @@
         <v>16042</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3268,13 +3256,13 @@
         <v>24595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3283,13 +3271,13 @@
         <v>40638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3292,13 @@
         <v>530844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3319,13 +3307,13 @@
         <v>524545</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
@@ -3334,13 +3322,13 @@
         <v>1055388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3396,13 @@
         <v>181408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>339</v>
@@ -3423,13 +3411,13 @@
         <v>378113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>512</v>
@@ -3438,13 +3426,13 @@
         <v>559521</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3447,13 @@
         <v>3196210</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>2987</v>
@@ -3474,13 +3462,13 @@
         <v>3153987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>6029</v>
@@ -3489,13 +3477,13 @@
         <v>6350197</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB06CED-161B-4D88-AA26-19ECFAA58E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD75EF6F-D6A3-4AFE-911F-A483C20C1A17}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3682,13 @@
         <v>63527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>303</v>
@@ -3709,13 +3697,13 @@
         <v>191280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>384</v>
@@ -3724,13 +3712,13 @@
         <v>254807</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>477419</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1121</v>
@@ -3760,13 +3748,13 @@
         <v>643008</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1730</v>
@@ -3775,13 +3763,13 @@
         <v>1120426</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3837,13 @@
         <v>109411</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
@@ -3864,13 +3852,13 @@
         <v>167377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>341</v>
@@ -3879,13 +3867,13 @@
         <v>276788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3888,13 @@
         <v>2052013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>2687</v>
@@ -3915,13 +3903,13 @@
         <v>2081799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>4570</v>
@@ -3930,13 +3918,13 @@
         <v>4133811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3992,13 @@
         <v>25642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4019,13 +4007,13 @@
         <v>50032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4034,13 +4022,13 @@
         <v>75674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>647397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>936</v>
@@ -4070,13 +4058,13 @@
         <v>663854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
@@ -4085,13 +4073,13 @@
         <v>1311252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4147,13 @@
         <v>198580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>604</v>
@@ -4174,13 +4162,13 @@
         <v>408689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>819</v>
@@ -4189,13 +4177,13 @@
         <v>607269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4198,13 @@
         <v>3176828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>4744</v>
@@ -4225,13 +4213,13 @@
         <v>3388661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>7891</v>
@@ -4240,13 +4228,13 @@
         <v>6565489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,7 +4290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA8DB5F-4A22-4080-AAAF-26068CD41026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82132415-6151-4BFD-A6E8-4D150B05329A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85E105A1-C306-4E71-A28B-330D7E65852E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9E63B91B-5161-4556-966D-CCFDBD40454B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -704,196 +704,208 @@
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7F9630-1FE3-4AA2-95C6-1C6D5D31050F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AF198F-A5D2-477C-897F-A2E99AC5B8CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1456,7 +1468,7 @@
         <v>266</v>
       </c>
       <c r="N4" s="7">
-        <v>272411</v>
+        <v>272410</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1558,7 +1570,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1632,7 +1644,7 @@
         <v>1603</v>
       </c>
       <c r="D8" s="7">
-        <v>1646348</v>
+        <v>1646349</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1683,7 +1695,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1906,7 +1918,7 @@
         <v>277</v>
       </c>
       <c r="I13" s="7">
-        <v>286810</v>
+        <v>286809</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>70</v>
@@ -1942,7 +1954,7 @@
         <v>3046</v>
       </c>
       <c r="D14" s="7">
-        <v>3106010</v>
+        <v>3106009</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1972,7 +1984,7 @@
         <v>6066</v>
       </c>
       <c r="N14" s="7">
-        <v>6198397</v>
+        <v>6198398</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1993,7 +2005,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2020,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2023,7 +2035,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D999CD7-B368-490C-BC68-F43CC9EBC7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AD6E29-8994-4DC4-B5C6-5EBF026C4112}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2207,7 +2219,7 @@
         <v>401</v>
       </c>
       <c r="N4" s="7">
-        <v>432306</v>
+        <v>432307</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>93</v>
@@ -2309,7 +2321,7 @@
         <v>2154</v>
       </c>
       <c r="N6" s="7">
-        <v>2311384</v>
+        <v>2311385</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2383,7 +2395,7 @@
         <v>1771</v>
       </c>
       <c r="D8" s="7">
-        <v>1872944</v>
+        <v>1872945</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>113</v>
@@ -2434,7 +2446,7 @@
         <v>1854</v>
       </c>
       <c r="D9" s="7">
-        <v>1961966</v>
+        <v>1961967</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2568,7 +2580,7 @@
         <v>819</v>
       </c>
       <c r="N11" s="7">
-        <v>902876</v>
+        <v>902877</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2619,7 +2631,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2657,7 +2669,7 @@
         <v>461</v>
       </c>
       <c r="I13" s="7">
-        <v>495102</v>
+        <v>495101</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>140</v>
@@ -2759,7 +2771,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3553176</v>
+        <v>3553175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2807,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D2F87-DABE-4A73-B25C-10E19A965403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BC2796-3629-444D-B7BB-F27B572D62AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3319,7 +3331,7 @@
         <v>989</v>
       </c>
       <c r="N11" s="7">
-        <v>1055388</v>
+        <v>1055389</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>182</v>
@@ -3370,7 +3382,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3558,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD75EF6F-D6A3-4AFE-911F-A483C20C1A17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7C616B-BAAA-4CDD-9827-BDF3EFF85782}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3679,7 +3691,7 @@
         <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>63527</v>
+        <v>58575</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>221</v>
@@ -3694,7 +3706,7 @@
         <v>303</v>
       </c>
       <c r="I4" s="7">
-        <v>191280</v>
+        <v>167032</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>224</v>
@@ -3709,7 +3721,7 @@
         <v>384</v>
       </c>
       <c r="N4" s="7">
-        <v>254807</v>
+        <v>225606</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>227</v>
@@ -3730,7 +3742,7 @@
         <v>609</v>
       </c>
       <c r="D5" s="7">
-        <v>477419</v>
+        <v>455728</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>230</v>
@@ -3745,7 +3757,7 @@
         <v>1121</v>
       </c>
       <c r="I5" s="7">
-        <v>643008</v>
+        <v>586968</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>233</v>
@@ -3760,7 +3772,7 @@
         <v>1730</v>
       </c>
       <c r="N5" s="7">
-        <v>1120426</v>
+        <v>1042697</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>236</v>
@@ -3781,7 +3793,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540946</v>
+        <v>514303</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3808,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>834288</v>
+        <v>754000</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3811,7 +3823,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1375233</v>
+        <v>1268303</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3834,46 +3846,46 @@
         <v>108</v>
       </c>
       <c r="D7" s="7">
-        <v>109411</v>
+        <v>103871</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
       </c>
       <c r="I7" s="7">
-        <v>167377</v>
+        <v>150521</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>341</v>
       </c>
       <c r="N7" s="7">
-        <v>276788</v>
+        <v>254392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,46 +3897,46 @@
         <v>1883</v>
       </c>
       <c r="D8" s="7">
-        <v>2052013</v>
+        <v>2185886</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>2687</v>
       </c>
       <c r="I8" s="7">
-        <v>2081799</v>
+        <v>2086981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>4570</v>
       </c>
       <c r="N8" s="7">
-        <v>4133811</v>
+        <v>4272866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3948,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2161424</v>
+        <v>2289757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3951,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2249176</v>
+        <v>2237502</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3966,7 +3978,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4410599</v>
+        <v>4527258</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3989,43 +4001,43 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>25642</v>
+        <v>24686</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>50032</v>
+        <v>46378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>75674</v>
+        <v>71064</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>261</v>
@@ -4040,7 +4052,7 @@
         <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>647397</v>
+        <v>621937</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>262</v>
@@ -4055,31 +4067,31 @@
         <v>936</v>
       </c>
       <c r="I11" s="7">
-        <v>663854</v>
+        <v>614085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1591</v>
       </c>
       <c r="N11" s="7">
-        <v>1311252</v>
+        <v>1236022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4103,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4106,7 +4118,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4121,7 +4133,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4144,46 +4156,46 @@
         <v>215</v>
       </c>
       <c r="D13" s="7">
-        <v>198580</v>
+        <v>187132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>604</v>
       </c>
       <c r="I13" s="7">
-        <v>408689</v>
+        <v>363931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>819</v>
       </c>
       <c r="N13" s="7">
-        <v>607269</v>
+        <v>551063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,46 +4207,46 @@
         <v>3147</v>
       </c>
       <c r="D14" s="7">
-        <v>3176828</v>
+        <v>3263551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>4744</v>
       </c>
       <c r="I14" s="7">
-        <v>3388661</v>
+        <v>3288034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>7891</v>
       </c>
       <c r="N14" s="7">
-        <v>6565489</v>
+        <v>6551584</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4258,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375408</v>
+        <v>3450683</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4261,7 +4273,7 @@
         <v>5348</v>
       </c>
       <c r="I15" s="7">
-        <v>3797350</v>
+        <v>3651965</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4276,7 +4288,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7172758</v>
+        <v>7102647</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
